--- a/заказы/филиалы и опт/2024/02,24/20,02,24 Ост КИ филиалы/Бердянск/дв 13,02,24 Бердянск Останкино КИ от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/02,24/20,02,24 Ост КИ филиалы/Бердянск/дв 13,02,24 Бердянск Останкино КИ от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\13,02,24 филиалы Ост КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\02,24\20,02,24 Ост КИ филиалы\Бердянск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6A5B3-EA14-4A1F-A0E3-ED70CAD39A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE81DD-2D27-48C5-BF1C-17918E3C6812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4905,12 +4905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,7 +5327,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5433,7 +5432,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5752,7 +5751,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -5862,7 +5861,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -6072,7 +6071,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -6613,7 +6612,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -6824,7 +6823,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -7036,7 +7035,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -7254,7 +7253,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -7791,7 +7790,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8008,7 +8007,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -8222,7 +8221,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8328,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -8743,7 +8742,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -8852,7 +8851,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -9177,7 +9176,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -9393,7 +9392,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -9495,7 +9494,7 @@
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -9822,7 +9821,7 @@
       <c r="BB47" s="1"/>
       <c r="BC47" s="1"/>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -9927,7 +9926,7 @@
       <c r="BB48" s="1"/>
       <c r="BC48" s="1"/>
     </row>
-    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -10136,7 +10135,7 @@
       <c r="BB50" s="1"/>
       <c r="BC50" s="1"/>
     </row>
-    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -10457,7 +10456,7 @@
       <c r="BB53" s="1"/>
       <c r="BC53" s="1"/>
     </row>
-    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>72</v>
       </c>
@@ -10770,7 +10769,7 @@
       <c r="BB56" s="1"/>
       <c r="BC56" s="1"/>
     </row>
-    <row r="57" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -10875,7 +10874,7 @@
       <c r="BB57" s="1"/>
       <c r="BC57" s="1"/>
     </row>
-    <row r="58" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
@@ -10980,7 +10979,7 @@
       <c r="BB58" s="1"/>
       <c r="BC58" s="1"/>
     </row>
-    <row r="59" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -11855,7 +11854,7 @@
       <c r="BB66" s="1"/>
       <c r="BC66" s="1"/>
     </row>
-    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -12070,7 +12069,7 @@
       <c r="BB68" s="1"/>
       <c r="BC68" s="1"/>
     </row>
-    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -12172,7 +12171,7 @@
       <c r="BB69" s="1"/>
       <c r="BC69" s="1"/>
     </row>
-    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -12270,7 +12269,7 @@
       <c r="BB70" s="1"/>
       <c r="BC70" s="1"/>
     </row>
-    <row r="71" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -12368,7 +12367,7 @@
       <c r="BB71" s="1"/>
       <c r="BC71" s="1"/>
     </row>
-    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -12467,7 +12466,7 @@
       <c r="BB72" s="1"/>
       <c r="BC72" s="1"/>
     </row>
-    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -36957,42 +36956,7 @@
       <c r="BC500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Z76" xr:uid="{B5A96F40-8959-4064-A5A0-A453BB785EF4}">
-    <filterColumn colId="16">
-      <filters blank="1">
-        <filter val="100"/>
-        <filter val="110"/>
-        <filter val="1150"/>
-        <filter val="120"/>
-        <filter val="12249"/>
-        <filter val="140"/>
-        <filter val="15"/>
-        <filter val="150"/>
-        <filter val="160"/>
-        <filter val="17,02,"/>
-        <filter val="210"/>
-        <filter val="240"/>
-        <filter val="250"/>
-        <filter val="270"/>
-        <filter val="300"/>
-        <filter val="350"/>
-        <filter val="354"/>
-        <filter val="40"/>
-        <filter val="400"/>
-        <filter val="50"/>
-        <filter val="500"/>
-        <filter val="550"/>
-        <filter val="570"/>
-        <filter val="60"/>
-        <filter val="600"/>
-        <filter val="670"/>
-        <filter val="680"/>
-        <filter val="710"/>
-        <filter val="75"/>
-        <filter val="750"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:Z76" xr:uid="{B5A96F40-8959-4064-A5A0-A453BB785EF4}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
